--- a/output/3Y_P52_KFSDIV.xlsx
+++ b/output/3Y_P52_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11166,6 +11169,26 @@
         <v>58147.5353</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8567</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8547</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.854</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
